--- a/数据表设计.xlsx
+++ b/数据表设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuneLy\Desktop\chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDC774-2078-4050-AD35-22269AC5C57B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2F881-D707-46D0-9175-042966361E57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="2775" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="2400" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>映射房间ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,6 +369,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,7 +382,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -666,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,11 +693,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>19</v>
+      <c r="A2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -712,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -725,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -738,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -751,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -762,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -773,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -784,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -795,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -803,15 +799,15 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -819,44 +815,31 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -897,10 +880,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -908,28 +891,28 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -968,13 +951,13 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1014,10 +997,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1025,28 +1008,28 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1085,13 +1068,13 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1138,10 +1121,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1149,119 +1132,119 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1286,22 +1269,22 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>

--- a/数据表设计.xlsx
+++ b/数据表设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuneLy\Desktop\chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2F881-D707-46D0-9175-042966361E57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E32E0A4-8805-4D74-8B63-75E2C4E1918F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2400" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="2085" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表名:user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表名:room</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +246,10 @@
   </si>
   <si>
     <t>0:女 1:男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名:users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -697,7 +697,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -708,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -747,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -758,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -769,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -780,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -791,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -802,12 +802,12 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -815,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -830,7 +830,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -852,7 +852,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -883,7 +883,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -894,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -907,7 +907,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -952,7 +952,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1000,7 +1000,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1011,7 +1011,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1024,7 +1024,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1089,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8494B66C-29A5-4CB3-ADE1-2CE0DBED2798}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1124,7 +1124,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1135,7 +1135,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1148,7 +1148,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1161,7 +1161,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1174,7 +1174,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1187,7 +1187,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1200,7 +1200,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1213,7 +1213,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1226,7 +1226,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1239,7 +1239,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
